--- a/example/template/Blank.xlsx
+++ b/example/template/Blank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>sa</t>
+    <t>あいうえお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -29,7 +33,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -40,6 +50,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -63,14 +91,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -399,27 +450,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="D3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>0</v>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
